--- a/medicine/Mort/Cimetière_nouveau_de_Chelles/Cimetière_nouveau_de_Chelles.xlsx
+++ b/medicine/Mort/Cimetière_nouveau_de_Chelles/Cimetière_nouveau_de_Chelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Chelles</t>
+          <t>Cimetière_nouveau_de_Chelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière nouveau de Chelles, parfois appelé cimetière de l'Est, est un lieu d'inhumation à Chelles, dans le département de Seine-et-Marne, en France.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Chelles</t>
+          <t>Cimetière_nouveau_de_Chelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé avenue de Claye, à deux-cent mètres de l'ancien cimetière. Son terrain entoure le poste électrique de Galères, dont les câbles surplombent les tombes.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_nouveau_de_Chelles</t>
+          <t>Cimetière_nouveau_de_Chelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,11 +556,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis le début du XXe siècle, la commune constate que le cimetière ancien ne suffit plus à l'augmentation de sa population et prend la décision d'en construire un nouveau, faisant à cet effet, en 1934, l'acquisition d'un terrain idoine. Ce n'est qu'en 1954 que le nouveau cimetière voit le jour[1]. La population allant toujours s'accroissant, il est agrandi à partir de 2016 avec 1500 concessions supplémentaires[2],[3] sur un terrain de 8000 mètres carrés[4]. À cette occasion s'effectue la reprise de concessions échues ou abandonnées[5].
-En 2017, la mairie exprime son refus d'y inhumer Karim Cheurfi, auteur de l'attentat du 20 avril 2017 sur l'avenue des Champs-Élysées à Paris, si la famille en faisait la demande, afin d'éviter tout trouble à l’ordre public[6],[7].
-Comme l'ensemble des cimetières de France, son accès était interdit pendant le confinement dû à la pandémie de Covid-19. Le maire de la ville, ému des situations dramatiques que vivaient certains habitants ayant perdu des proches, a pris la décision, avec accord de la préfecture, d'autoriser la réouverture de ce cimetière ainsi que celle du cimetière ancien[8],[9].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis le début du XXe siècle, la commune constate que le cimetière ancien ne suffit plus à l'augmentation de sa population et prend la décision d'en construire un nouveau, faisant à cet effet, en 1934, l'acquisition d'un terrain idoine. Ce n'est qu'en 1954 que le nouveau cimetière voit le jour. La population allant toujours s'accroissant, il est agrandi à partir de 2016 avec 1500 concessions supplémentaires, sur un terrain de 8000 mètres carrés. À cette occasion s'effectue la reprise de concessions échues ou abandonnées.
+En 2017, la mairie exprime son refus d'y inhumer Karim Cheurfi, auteur de l'attentat du 20 avril 2017 sur l'avenue des Champs-Élysées à Paris, si la famille en faisait la demande, afin d'éviter tout trouble à l’ordre public,.
+Comme l'ensemble des cimetières de France, son accès était interdit pendant le confinement dû à la pandémie de Covid-19. Le maire de la ville, ému des situations dramatiques que vivaient certains habitants ayant perdu des proches, a pris la décision, avec accord de la préfecture, d'autoriser la réouverture de ce cimetière ainsi que celle du cimetière ancien,.
 </t>
         </is>
       </c>
